--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_21-19.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_21-19.xlsx
@@ -155,6 +155,9 @@
     <t>COLOVATIL 30 F.C. TABS</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
     <t>CONCOR 10MG 30 F.C. TABLETS</t>
   </si>
   <si>
@@ -192,9 +195,6 @@
   </si>
   <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>3:2</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -1912,7 +1912,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1930,7 +1930,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1938,7 +1938,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1956,7 +1956,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1982,7 +1982,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1990,7 +1990,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2008,7 +2008,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2034,7 +2034,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2042,7 +2042,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -2060,7 +2060,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2086,7 +2086,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2112,7 +2112,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2138,7 +2138,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2164,7 +2164,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2172,7 +2172,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -3576,7 +3576,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -3680,7 +3680,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -4184,7 +4184,7 @@
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4356,7 +4356,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
@@ -4382,7 +4382,7 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4668,7 +4668,7 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
       <c t="s" r="H134" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
@@ -4694,7 +4694,7 @@
       <c r="F135" s="7"/>
       <c r="G135" s="7"/>
       <c t="s" r="H135" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
@@ -4772,7 +4772,7 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
       <c t="s" r="H138" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
@@ -4824,7 +4824,7 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
       <c t="s" r="H140" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
@@ -5604,7 +5604,7 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
       <c t="s" r="H170" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
@@ -5786,7 +5786,7 @@
       <c r="F177" s="7"/>
       <c r="G177" s="7"/>
       <c t="s" r="H177" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
